--- a/OriginalDiffusionGauss/OriginalDiffusionGauss_resultsIn.xlsx
+++ b/OriginalDiffusionGauss/OriginalDiffusionGauss_resultsIn.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
@@ -15,20 +15,20 @@
     <sheet name="1984" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_1980solution" localSheetId="1">'1980'!$A$1:$I$55</definedName>
-    <definedName name="_1981solution" localSheetId="2">'1981'!$A$1:$I$55</definedName>
-    <definedName name="_1982solution" localSheetId="3">'1982'!$A$1:$I$55</definedName>
-    <definedName name="_1983solution" localSheetId="4">'1983'!$A$1:$I$55</definedName>
-    <definedName name="_1984solution" localSheetId="5">'1984'!$A$1:$I$55</definedName>
+    <definedName name="_1980solution" localSheetId="1">'1980'!$A$1:$I$57</definedName>
+    <definedName name="_1981solution" localSheetId="2">'1981'!$A$1:$I$57</definedName>
+    <definedName name="_1982solution" localSheetId="3">'1982'!$A$1:$I$57</definedName>
+    <definedName name="_1983solution" localSheetId="4">'1983'!$A$1:$I$57</definedName>
+    <definedName name="_1984solution" localSheetId="5">'1984'!$A$1:$I$57</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="1980solution" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr prompt="0" codePage="437" sourceFile="C:\Users\inspirion\Documents\GitHub\EMOSA\originalDiffusionGauss\RawOut\1980.solution.txt" space="1" consecutive="1">
+  <connection id="1" name="1980solution" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr prompt="0" codePage="437" sourceFile="C:\Users\kovalav\Documents\GitHub\EMOSA\OriginalDiffusionGauss\RawOut\1980.solution.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -36,8 +36,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="1981solution" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr prompt="0" codePage="437" sourceFile="C:\Users\inspirion\Documents\GitHub\EMOSA\originalDiffusionGauss\RawOut\1981.solution.txt" space="1" consecutive="1">
+  <connection id="2" name="1981solution" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr prompt="0" codePage="437" sourceFile="C:\Users\kovalav\Documents\GitHub\EMOSA\OriginalDiffusionGauss\RawOut\1981.solution.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -45,8 +45,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="1982solution" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr prompt="0" codePage="437" sourceFile="C:\Users\inspirion\Documents\GitHub\EMOSA\originalDiffusionGauss\RawOut\1982.solution.txt" space="1" consecutive="1">
+  <connection id="3" name="1982solution" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr prompt="0" codePage="437" sourceFile="C:\Users\kovalav\Documents\GitHub\EMOSA\OriginalDiffusionGauss\RawOut\1982.solution.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -54,8 +54,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="1983solution" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr prompt="0" codePage="437" sourceFile="C:\Users\inspirion\Documents\GitHub\EMOSA\originalDiffusionGauss\RawOut\1983.solution.txt" space="1" consecutive="1">
+  <connection id="4" name="1983solution" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr prompt="0" codePage="437" sourceFile="C:\Users\kovalav\Documents\GitHub\EMOSA\OriginalDiffusionGauss\RawOut\1983.solution.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -63,8 +63,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="1984solution" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr prompt="0" codePage="437" sourceFile="C:\Users\inspirion\Documents\GitHub\EMOSA\originalDiffusionGauss\RawOut\1984.solution.txt" space="1" consecutive="1">
+  <connection id="5" name="1984solution" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr prompt="0" codePage="437" sourceFile="C:\Users\kovalav\Documents\GitHub\EMOSA\OriginalDiffusionGauss\RawOut\1984.solution.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -240,9 +240,6 @@
     <t>sigmaG</t>
   </si>
   <si>
-    <t>sigmaI</t>
-  </si>
-  <si>
     <t>Quantiles</t>
   </si>
   <si>
@@ -279,24 +276,27 @@
     <t>psrf</t>
   </si>
   <si>
-    <t>11001:21000</t>
-  </si>
-  <si>
     <t>Diffusion</t>
   </si>
   <si>
     <t>OriginalDiffusionGauss</t>
+  </si>
+  <si>
+    <t>101001:201000</t>
+  </si>
+  <si>
+    <t>sigmaA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,7 +449,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -484,7 +483,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -660,19 +658,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:N6"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -824,36 +822,36 @@
         <v>Cai_median</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2">
         <v>1980</v>
       </c>
       <c r="C2">
         <f>VLOOKUP(C1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.49968000000000001</v>
+        <v>0.35498000000000002</v>
       </c>
       <c r="D2">
         <f>VLOOKUP(D1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.48838999999999999</v>
+        <v>0.56366000000000005</v>
       </c>
       <c r="E2">
         <f>VLOOKUP(E1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.2208</v>
+        <v>0.22805</v>
       </c>
       <c r="F2">
         <f>VLOOKUP(F1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.18410000000000001</v>
+        <v>0.16370000000000001</v>
       </c>
       <c r="G2">
         <f>VLOOKUP(G1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.33772999999999997</v>
+        <v>0.50029000000000001</v>
       </c>
       <c r="H2">
         <f>VLOOKUP(H1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.11835</v>
+        <v>0.49980999999999998</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -875,43 +873,43 @@
       </c>
       <c r="O2">
         <f>VLOOKUP(O1,'1980'!$K:$L,2,FALSE)</f>
-        <v>-95.03</v>
+        <v>-119.3</v>
       </c>
       <c r="P2">
         <f>VLOOKUP(P1,'1980'!$K:$L,2,FALSE)</f>
-        <v>9.6620000000000008</v>
+        <v>7.4790000000000001</v>
       </c>
       <c r="Q2">
         <f>VLOOKUP(Q1,'1980'!$K:$L,2,FALSE)</f>
-        <v>-85.37</v>
+        <v>-111.9</v>
       </c>
       <c r="R2">
         <f>VLOOKUP(R1,'1980'!$K:$L,2,FALSE)</f>
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="S2">
         <f>VLOOKUP(S1,'1980'!$K:$L,2,FALSE)</f>
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="T2">
         <f>VLOOKUP(T1,'1980'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <f>VLOOKUP(U1,'1980'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="V2">
         <f>VLOOKUP(V1,'1980'!$K:$L,2,FALSE)</f>
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="W2">
         <f>VLOOKUP(W1,'1980'!$K:$L,2,FALSE)</f>
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <f>VLOOKUP(X1,'1980'!$K:$L,2,FALSE)</f>
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="e">
         <f>VLOOKUP(Y1,'1980'!$K:$L,2,FALSE)</f>
@@ -939,27 +937,27 @@
       </c>
       <c r="AE2">
         <f>VLOOKUP(AE1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.50256999999999996</v>
+        <v>0.330704</v>
       </c>
       <c r="AF2">
         <f>VLOOKUP(AF1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.48020000000000002</v>
+        <v>0.56769800000000004</v>
       </c>
       <c r="AG2">
         <f>VLOOKUP(AG1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.20330999999999999</v>
+        <v>0.212561</v>
       </c>
       <c r="AH2">
         <f>VLOOKUP(AH1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.18037</v>
+        <v>0.16477700000000001</v>
       </c>
       <c r="AI2">
         <f>VLOOKUP(AI1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.31464999999999999</v>
+        <v>0.50032200000000004</v>
       </c>
       <c r="AJ2">
         <f>VLOOKUP(AJ1,'1980'!$K:$L,2,FALSE)</f>
-        <v>9.9140000000000006E-2</v>
+        <v>0.50032600000000005</v>
       </c>
       <c r="AK2" t="e">
         <f>VLOOKUP(AK1,'1980'!$K:$L,2,FALSE)</f>
@@ -986,36 +984,36 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <v>1981</v>
       </c>
       <c r="C3">
         <f>VLOOKUP(C1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.42707000000000001</v>
+        <v>0.33807999999999999</v>
       </c>
       <c r="D3">
         <f>VLOOKUP(D1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.28473999999999999</v>
+        <v>0.39623000000000003</v>
       </c>
       <c r="E3">
         <f>VLOOKUP(E1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.25911000000000001</v>
+        <v>0.28472999999999998</v>
       </c>
       <c r="F3">
         <f>VLOOKUP(F1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.13627</v>
+        <v>0.13614000000000001</v>
       </c>
       <c r="G3">
         <f>VLOOKUP(G1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.22988</v>
+        <v>0.49948999999999999</v>
       </c>
       <c r="H3">
         <f>VLOOKUP(H1,'1981'!$K:$L,2,FALSE)</f>
-        <v>7.6480000000000006E-2</v>
+        <v>0.49983</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1037,43 +1035,43 @@
       </c>
       <c r="O3">
         <f>VLOOKUP(O1,'1981'!$K:$L,2,FALSE)</f>
-        <v>-97.32</v>
+        <v>-114.7</v>
       </c>
       <c r="P3">
         <f>VLOOKUP(P1,'1981'!$K:$L,2,FALSE)</f>
-        <v>11.01</v>
+        <v>7.5709999999999997</v>
       </c>
       <c r="Q3">
         <f>VLOOKUP(Q1,'1981'!$K:$L,2,FALSE)</f>
-        <v>-86.3</v>
+        <v>-107.1</v>
       </c>
       <c r="R3">
         <f>VLOOKUP(R1,'1981'!$K:$L,2,FALSE)</f>
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="S3">
         <f>VLOOKUP(S1,'1981'!$K:$L,2,FALSE)</f>
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="T3">
         <f>VLOOKUP(T1,'1981'!$K:$L,2,FALSE)</f>
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <f>VLOOKUP(U1,'1981'!$K:$L,2,FALSE)</f>
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="V3">
         <f>VLOOKUP(V1,'1981'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <f>VLOOKUP(W1,'1981'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <f>VLOOKUP(X1,'1981'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="e">
         <f>VLOOKUP(Y1,'1981'!$K:$L,2,FALSE)</f>
@@ -1101,27 +1099,27 @@
       </c>
       <c r="AE3">
         <f>VLOOKUP(AE1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.42311500000000002</v>
+        <v>0.30285000000000001</v>
       </c>
       <c r="AF3">
         <f>VLOOKUP(AF1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.26408999999999999</v>
+        <v>0.39551999999999998</v>
       </c>
       <c r="AG3">
         <f>VLOOKUP(AG1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.24845300000000001</v>
+        <v>0.25830999999999998</v>
       </c>
       <c r="AH3">
         <f>VLOOKUP(AH1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.13423399999999999</v>
+        <v>0.13582</v>
       </c>
       <c r="AI3">
         <f>VLOOKUP(AI1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.211224</v>
+        <v>0.49908000000000002</v>
       </c>
       <c r="AJ3">
         <f>VLOOKUP(AJ1,'1981'!$K:$L,2,FALSE)</f>
-        <v>6.0909999999999999E-2</v>
+        <v>0.49946000000000002</v>
       </c>
       <c r="AK3" t="e">
         <f>VLOOKUP(AK1,'1981'!$K:$L,2,FALSE)</f>
@@ -1148,36 +1146,36 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>1982</v>
       </c>
       <c r="C4">
         <f>VLOOKUP(C1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.66615000000000002</v>
+        <v>0.49470999999999998</v>
       </c>
       <c r="D4">
         <f>VLOOKUP(D1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.24057000000000001</v>
+        <v>0.29920000000000002</v>
       </c>
       <c r="E4">
         <f>VLOOKUP(E1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.43601000000000001</v>
+        <v>0.42468</v>
       </c>
       <c r="F4">
         <f>VLOOKUP(F1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.12153</v>
+        <v>8.566E-2</v>
       </c>
       <c r="G4">
         <f>VLOOKUP(G1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.25130000000000002</v>
+        <v>0.49961</v>
       </c>
       <c r="H4">
         <f>VLOOKUP(H1,'1982'!$K:$L,2,FALSE)</f>
-        <v>6.7729999999999999E-2</v>
+        <v>0.50073000000000001</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1199,23 +1197,23 @@
       </c>
       <c r="O4">
         <f>VLOOKUP(O1,'1982'!$K:$L,2,FALSE)</f>
-        <v>-89.81</v>
+        <v>-103.9</v>
       </c>
       <c r="P4">
         <f>VLOOKUP(P1,'1982'!$K:$L,2,FALSE)</f>
-        <v>10.77</v>
+        <v>7.617</v>
       </c>
       <c r="Q4">
         <f>VLOOKUP(Q1,'1982'!$K:$L,2,FALSE)</f>
-        <v>-79.040000000000006</v>
+        <v>-96.32</v>
       </c>
       <c r="R4">
         <f>VLOOKUP(R1,'1982'!$K:$L,2,FALSE)</f>
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="S4">
         <f>VLOOKUP(S1,'1982'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <f>VLOOKUP(T1,'1982'!$K:$L,2,FALSE)</f>
@@ -1223,15 +1221,15 @@
       </c>
       <c r="U4">
         <f>VLOOKUP(U1,'1982'!$K:$L,2,FALSE)</f>
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="V4">
         <f>VLOOKUP(V1,'1982'!$K:$L,2,FALSE)</f>
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="W4">
         <f>VLOOKUP(W1,'1982'!$K:$L,2,FALSE)</f>
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <f>VLOOKUP(X1,'1982'!$K:$L,2,FALSE)</f>
@@ -1263,27 +1261,27 @@
       </c>
       <c r="AE4">
         <f>VLOOKUP(AE1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.67408999999999997</v>
+        <v>0.49440000000000001</v>
       </c>
       <c r="AF4">
         <f>VLOOKUP(AF1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.21485000000000001</v>
+        <v>0.29515000000000002</v>
       </c>
       <c r="AG4">
         <f>VLOOKUP(AG1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.43974999999999997</v>
+        <v>0.42454999999999998</v>
       </c>
       <c r="AH4">
         <f>VLOOKUP(AH1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.11279</v>
+        <v>8.4099999999999994E-2</v>
       </c>
       <c r="AI4">
         <f>VLOOKUP(AI1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.22983000000000001</v>
+        <v>0.49883</v>
       </c>
       <c r="AJ4">
         <f>VLOOKUP(AJ1,'1982'!$K:$L,2,FALSE)</f>
-        <v>6.0310000000000002E-2</v>
+        <v>0.50127999999999995</v>
       </c>
       <c r="AK4" t="e">
         <f>VLOOKUP(AK1,'1982'!$K:$L,2,FALSE)</f>
@@ -1310,36 +1308,36 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>1983</v>
       </c>
       <c r="C5">
         <f>VLOOKUP(C1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.28240700000000002</v>
+        <v>0.15237000000000001</v>
       </c>
       <c r="D5">
         <f>VLOOKUP(D1,'1983'!$K:$L,2,FALSE)</f>
-        <v>9.7919999999999993E-2</v>
+        <v>0.23077</v>
       </c>
       <c r="E5">
         <f>VLOOKUP(E1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.100661</v>
+        <v>0.116663</v>
       </c>
       <c r="F5">
         <f>VLOOKUP(F1,'1983'!$K:$L,2,FALSE)</f>
-        <v>6.8933999999999995E-2</v>
+        <v>6.3184000000000004E-2</v>
       </c>
       <c r="G5">
         <f>VLOOKUP(G1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.35939900000000002</v>
+        <v>0.50055799999999995</v>
       </c>
       <c r="H5">
         <f>VLOOKUP(H1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.111632</v>
+        <v>0.50029199999999996</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1361,27 +1359,27 @@
       </c>
       <c r="O5">
         <f>VLOOKUP(O1,'1983'!$K:$L,2,FALSE)</f>
-        <v>-102.2</v>
+        <v>-118.4</v>
       </c>
       <c r="P5">
         <f>VLOOKUP(P1,'1983'!$K:$L,2,FALSE)</f>
-        <v>12.39</v>
+        <v>8.0790000000000006</v>
       </c>
       <c r="Q5">
         <f>VLOOKUP(Q1,'1983'!$K:$L,2,FALSE)</f>
-        <v>-89.82</v>
+        <v>-110.3</v>
       </c>
       <c r="R5">
         <f>VLOOKUP(R1,'1983'!$K:$L,2,FALSE)</f>
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <f>VLOOKUP(S1,'1983'!$K:$L,2,FALSE)</f>
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <f>VLOOKUP(T1,'1983'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <f>VLOOKUP(U1,'1983'!$K:$L,2,FALSE)</f>
@@ -1393,11 +1391,11 @@
       </c>
       <c r="W5">
         <f>VLOOKUP(W1,'1983'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <f>VLOOKUP(X1,'1983'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="e">
         <f>VLOOKUP(Y1,'1983'!$K:$L,2,FALSE)</f>
@@ -1425,27 +1423,27 @@
       </c>
       <c r="AE5">
         <f>VLOOKUP(AE1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.29691699999999999</v>
+        <v>0.14459</v>
       </c>
       <c r="AF5">
         <f>VLOOKUP(AF1,'1983'!$K:$L,2,FALSE)</f>
-        <v>7.8206999999999999E-2</v>
+        <v>0.23318</v>
       </c>
       <c r="AG5">
         <f>VLOOKUP(AG1,'1983'!$K:$L,2,FALSE)</f>
-        <v>9.0406E-2</v>
+        <v>0.10968799999999999</v>
       </c>
       <c r="AH5">
         <f>VLOOKUP(AH1,'1983'!$K:$L,2,FALSE)</f>
-        <v>7.1266999999999997E-2</v>
+        <v>6.4389000000000002E-2</v>
       </c>
       <c r="AI5">
         <f>VLOOKUP(AI1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.34625600000000001</v>
+        <v>0.50108900000000001</v>
       </c>
       <c r="AJ5">
         <f>VLOOKUP(AJ1,'1983'!$K:$L,2,FALSE)</f>
-        <v>9.9959000000000006E-2</v>
+        <v>0.50054799999999999</v>
       </c>
       <c r="AK5" t="e">
         <f>VLOOKUP(AK1,'1983'!$K:$L,2,FALSE)</f>
@@ -1472,36 +1470,36 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>1984</v>
       </c>
       <c r="C6">
         <f>VLOOKUP(C1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.20882000000000001</v>
+        <v>0.11801</v>
       </c>
       <c r="D6">
         <f>VLOOKUP(D1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.11609999999999999</v>
+        <v>0.18074999999999999</v>
       </c>
       <c r="E6">
         <f>VLOOKUP(E1,'1984'!$K:$L,2,FALSE)</f>
-        <v>8.4199999999999997E-2</v>
+        <v>9.1120000000000007E-2</v>
       </c>
       <c r="F6">
         <f>VLOOKUP(F1,'1984'!$K:$L,2,FALSE)</f>
-        <v>4.8579999999999998E-2</v>
+        <v>3.5650000000000001E-2</v>
       </c>
       <c r="G6">
         <f>VLOOKUP(G1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.29564000000000001</v>
+        <v>0.50046000000000002</v>
       </c>
       <c r="H6">
         <f>VLOOKUP(H1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.10345</v>
+        <v>0.49936000000000003</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1523,15 +1521,15 @@
       </c>
       <c r="O6">
         <f>VLOOKUP(O1,'1984'!$K:$L,2,FALSE)</f>
-        <v>-78.36</v>
+        <v>-95.55</v>
       </c>
       <c r="P6">
         <f>VLOOKUP(P1,'1984'!$K:$L,2,FALSE)</f>
-        <v>10.87</v>
+        <v>7.1790000000000003</v>
       </c>
       <c r="Q6">
         <f>VLOOKUP(Q1,'1984'!$K:$L,2,FALSE)</f>
-        <v>-67.489999999999995</v>
+        <v>-88.37</v>
       </c>
       <c r="R6">
         <f>VLOOKUP(R1,'1984'!$K:$L,2,FALSE)</f>
@@ -1587,27 +1585,27 @@
       </c>
       <c r="AE6">
         <f>VLOOKUP(AE1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.21113000000000001</v>
+        <v>0.10643</v>
       </c>
       <c r="AF6">
         <f>VLOOKUP(AF1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.10162</v>
+        <v>0.18045</v>
       </c>
       <c r="AG6">
         <f>VLOOKUP(AG1,'1984'!$K:$L,2,FALSE)</f>
-        <v>7.0309999999999997E-2</v>
+        <v>8.0119999999999997E-2</v>
       </c>
       <c r="AH6">
         <f>VLOOKUP(AH1,'1984'!$K:$L,2,FALSE)</f>
-        <v>4.5609999999999998E-2</v>
+        <v>3.4450000000000001E-2</v>
       </c>
       <c r="AI6">
         <f>VLOOKUP(AI1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.27635999999999999</v>
+        <v>0.49997999999999998</v>
       </c>
       <c r="AJ6">
         <f>VLOOKUP(AJ1,'1984'!$K:$L,2,FALSE)</f>
-        <v>9.1039999999999996E-2</v>
+        <v>0.49903999999999998</v>
       </c>
       <c r="AK6" t="e">
         <f>VLOOKUP(AK1,'1984'!$K:$L,2,FALSE)</f>
@@ -1640,28 +1638,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1676,12 +1674,12 @@
         <v>Gauss</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -1691,22 +1689,22 @@
         <v>OriginalDiffusionGauss</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2">
         <f>B3</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1721,7 +1719,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1729,32 +1727,32 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>-95.03</v>
+        <v>-119.3</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
       <c r="L5">
         <f>C5</f>
-        <v>-95.03</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-119.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6">
-        <v>9.6620000000000008</v>
+        <v>7.4790000000000001</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
       </c>
       <c r="L6">
         <f>B6</f>
-        <v>9.6620000000000008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.4790000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1762,17 +1760,17 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>-85.37</v>
+        <v>-111.9</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
       <c r="L7">
         <f>C7</f>
-        <v>-85.37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-111.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1780,10 +1778,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1797,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1814,7 +1812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1831,10 +1829,10 @@
         <v>27</v>
       </c>
       <c r="F12" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1863,7 +1861,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -1883,7 +1881,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -1903,21 +1901,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>0.18410000000000001</v>
+        <v>0.16370000000000001</v>
       </c>
       <c r="C18">
-        <v>7.8992999999999994E-2</v>
+        <v>5.5594999999999999E-2</v>
       </c>
       <c r="D18" s="1">
-        <v>3.2249999999999998E-4</v>
+        <v>7.1769999999999999E-5</v>
       </c>
       <c r="E18" s="1">
-        <v>5.5209999999999999E-3</v>
+        <v>1.57E-3</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" ref="K18:L25" si="0">A18</f>
@@ -1925,24 +1923,24 @@
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0.18410000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.16370000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19">
-        <v>0.11835</v>
+        <v>0.49980999999999998</v>
       </c>
       <c r="C19">
-        <v>8.9090000000000003E-2</v>
+        <v>0.28865800000000003</v>
       </c>
       <c r="D19" s="1">
-        <v>3.637E-4</v>
+        <v>3.7270000000000001E-4</v>
       </c>
       <c r="E19" s="1">
-        <v>5.3410000000000003E-3</v>
+        <v>4.4260000000000002E-4</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
@@ -1950,24 +1948,24 @@
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>0.11835</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49980999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
-        <v>0.48838999999999999</v>
+        <v>0.56366000000000005</v>
       </c>
       <c r="C20">
-        <v>0.25772200000000001</v>
+        <v>0.186138</v>
       </c>
       <c r="D20" s="1">
-        <v>1.052E-3</v>
+        <v>2.4030000000000001E-4</v>
       </c>
       <c r="E20" s="1">
-        <v>1.7639999999999999E-2</v>
+        <v>5.2810000000000001E-3</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
@@ -1975,24 +1973,24 @@
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0.48838999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.56366000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>0.49968000000000001</v>
+        <v>0.35498000000000002</v>
       </c>
       <c r="C21">
-        <v>0.24516199999999999</v>
+        <v>0.20963100000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>1.0009999999999999E-3</v>
+        <v>2.7060000000000002E-4</v>
       </c>
       <c r="E21" s="1">
-        <v>1.9779999999999999E-2</v>
+        <v>5.6280000000000002E-3</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
@@ -2000,24 +1998,24 @@
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0.49968000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.35498000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22">
-        <v>0.33772999999999997</v>
+        <v>0.50029000000000001</v>
       </c>
       <c r="C22">
-        <v>0.204708</v>
+        <v>0.28851300000000002</v>
       </c>
       <c r="D22" s="1">
-        <v>8.3569999999999998E-4</v>
+        <v>3.725E-4</v>
       </c>
       <c r="E22" s="1">
-        <v>1.319E-2</v>
+        <v>3.7310000000000002E-4</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
@@ -2025,24 +2023,24 @@
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>0.33772999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50029000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23">
-        <v>0.2208</v>
+        <v>0.22805</v>
       </c>
       <c r="C23">
-        <v>0.133191</v>
+        <v>0.132187</v>
       </c>
       <c r="D23" s="1">
-        <v>5.4379999999999999E-4</v>
+        <v>1.707E-4</v>
       </c>
       <c r="E23" s="1">
-        <v>9.6089999999999995E-3</v>
+        <v>3.5530000000000002E-3</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
@@ -2050,69 +2048,69 @@
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>0.2208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.22805</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24">
+        <v>1.7309999999999999E-2</v>
+      </c>
+      <c r="C24">
+        <v>5.0660000000000002E-3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6.5400000000000001E-6</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.0849999999999999E-5</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>sigmaA</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>1.7309999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
         <v>53</v>
       </c>
-      <c r="B24">
-        <v>1.201E-2</v>
-      </c>
-      <c r="C24">
-        <v>4.6389999999999999E-3</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1.8940000000000002E-5</v>
-      </c>
-      <c r="E24" s="1">
-        <v>6.2139999999999998E-5</v>
-      </c>
-      <c r="K24" t="str">
+      <c r="B25">
+        <v>1.04E-2</v>
+      </c>
+      <c r="C25">
+        <v>3.2190000000000001E-3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4.155E-6</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.539E-5</v>
+      </c>
+      <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>sigmaG</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>1.201E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25">
-        <v>1.653E-2</v>
-      </c>
-      <c r="C25">
-        <v>6.6109999999999997E-3</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2.6990000000000001E-5</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1.262E-4</v>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" si="0"/>
-        <v>sigmaI</v>
-      </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>1.653E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.04E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
@@ -2121,14 +2119,14 @@
         <v>43</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="B29" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -2145,24 +2143,24 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30">
-        <v>3.6831999999999997E-2</v>
+        <v>5.0734000000000001E-2</v>
       </c>
       <c r="C30">
-        <v>0.131076</v>
+        <v>0.12626000000000001</v>
       </c>
       <c r="D30" s="1">
-        <v>0.18037</v>
+        <v>0.16477700000000001</v>
       </c>
       <c r="E30" s="1">
-        <v>0.23186000000000001</v>
+        <v>0.20233000000000001</v>
       </c>
       <c r="F30">
-        <v>0.35343000000000002</v>
+        <v>0.26983000000000001</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" ref="K30:K37" si="1">CONCATENATE(A30,"_median")</f>
@@ -2170,27 +2168,27 @@
       </c>
       <c r="L30">
         <f t="shared" ref="L30:L37" si="2">D30</f>
-        <v>0.18037</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.16477700000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31">
-        <v>6.0369999999999998E-3</v>
+        <v>2.4570999999999999E-2</v>
       </c>
       <c r="C31">
-        <v>5.0840999999999997E-2</v>
+        <v>0.24979000000000001</v>
       </c>
       <c r="D31" s="1">
-        <v>9.9140000000000006E-2</v>
+        <v>0.50032600000000005</v>
       </c>
       <c r="E31" s="1">
-        <v>0.16699</v>
+        <v>0.74968000000000001</v>
       </c>
       <c r="F31">
-        <v>0.33423000000000003</v>
+        <v>0.97470000000000001</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="1"/>
@@ -2198,27 +2196,27 @@
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
-        <v>9.9140000000000006E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50032600000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32">
-        <v>3.9106000000000002E-2</v>
+        <v>0.18502399999999999</v>
       </c>
       <c r="C32">
-        <v>0.283997</v>
+        <v>0.43786999999999998</v>
       </c>
       <c r="D32">
-        <v>0.48020000000000002</v>
+        <v>0.56769800000000004</v>
       </c>
       <c r="E32">
-        <v>0.69442000000000004</v>
+        <v>0.69374000000000002</v>
       </c>
       <c r="F32">
-        <v>0.95196999999999998</v>
+        <v>0.91925999999999997</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="1"/>
@@ -2226,27 +2224,27 @@
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
-        <v>0.48020000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.56769800000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33">
-        <v>5.4082999999999999E-2</v>
+        <v>3.2301999999999997E-2</v>
       </c>
       <c r="C33">
-        <v>0.31305300000000003</v>
+        <v>0.19177</v>
       </c>
       <c r="D33">
-        <v>0.50256999999999996</v>
+        <v>0.330704</v>
       </c>
       <c r="E33">
-        <v>0.68469000000000002</v>
+        <v>0.49114999999999998</v>
       </c>
       <c r="F33">
-        <v>0.94952999999999999</v>
+        <v>0.82657000000000003</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="1"/>
@@ -2254,27 +2252,27 @@
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
-        <v>0.50256999999999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.330704</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34">
-        <v>2.6002000000000001E-2</v>
+        <v>2.5291000000000001E-2</v>
       </c>
       <c r="C34">
-        <v>0.18312500000000001</v>
+        <v>0.25022</v>
       </c>
       <c r="D34">
-        <v>0.31464999999999999</v>
+        <v>0.50032200000000004</v>
       </c>
       <c r="E34">
-        <v>0.45771000000000001</v>
+        <v>0.74999000000000005</v>
       </c>
       <c r="F34">
-        <v>0.83331999999999995</v>
+        <v>0.97492000000000001</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="1"/>
@@ -2282,27 +2280,27 @@
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
-        <v>0.31464999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50032200000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="3">
-        <v>1.7151E-2</v>
+        <v>2.4122000000000001E-2</v>
       </c>
       <c r="C35" s="4">
-        <v>0.12113500000000001</v>
+        <v>0.12553</v>
       </c>
       <c r="D35" s="4">
-        <v>0.20330999999999999</v>
+        <v>0.212561</v>
       </c>
       <c r="E35" s="4">
-        <v>0.30245</v>
+        <v>0.31392999999999999</v>
       </c>
       <c r="F35" s="3">
-        <v>0.52263999999999999</v>
+        <v>0.52505000000000002</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="1"/>
@@ -2310,91 +2308,91 @@
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
-        <v>0.20330999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.212561</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B36">
-        <v>6.4700000000000001E-3</v>
+        <v>1.0527999999999999E-2</v>
       </c>
       <c r="C36">
-        <v>8.9730000000000001E-3</v>
+        <v>1.383E-2</v>
       </c>
       <c r="D36">
-        <v>1.0959999999999999E-2</v>
+        <v>1.6313000000000001E-2</v>
       </c>
       <c r="E36">
-        <v>1.3809999999999999E-2</v>
+        <v>1.9640000000000001E-2</v>
       </c>
       <c r="F36">
-        <v>2.367E-2</v>
+        <v>2.9870000000000001E-2</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="1"/>
-        <v>sigmaG_median</v>
+        <v>sigmaA_median</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
-        <v>1.0959999999999999E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.6313000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37">
-        <v>8.6859999999999993E-3</v>
+        <v>6.1460000000000004E-3</v>
       </c>
       <c r="C37">
-        <v>1.2141000000000001E-2</v>
+        <v>8.1899999999999994E-3</v>
       </c>
       <c r="D37">
-        <v>1.4999999999999999E-2</v>
+        <v>9.7579999999999993E-3</v>
       </c>
       <c r="E37">
-        <v>1.9120000000000002E-2</v>
+        <v>1.187E-2</v>
       </c>
       <c r="F37">
-        <v>3.3520000000000001E-2</v>
+        <v>1.8370000000000001E-2</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="1"/>
-        <v>sigmaI_median</v>
+        <v>sigmaG_median</v>
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9.7579999999999993E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
         <v>57</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>58</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>59</v>
       </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="41" spans="1:12">
+      <c r="B41" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>61</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>62</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>63</v>
-      </c>
-      <c r="E41" t="s">
-        <v>64</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" ref="K41" si="3">CONCATENATE(A41,"_rhat")</f>
@@ -2405,15 +2403,15 @@
         <v>Point</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="K42" t="str">
         <f>CONCATENATE(A42,"_rhat")</f>
@@ -2421,18 +2419,18 @@
       </c>
       <c r="L42">
         <f>B42</f>
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>7</v>
       </c>
       <c r="B43">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" ref="K43:K49" si="5">CONCATENATE(A43,"_rhat")</f>
@@ -2440,18 +2438,18 @@
       </c>
       <c r="L43">
         <f t="shared" ref="L43:L49" si="6">B43</f>
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>3</v>
       </c>
       <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
         <v>1.01</v>
-      </c>
-      <c r="C44">
-        <v>1.04</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="5"/>
@@ -2459,18 +2457,18 @@
       </c>
       <c r="L44">
         <f t="shared" si="6"/>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>2</v>
       </c>
       <c r="B45">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="5"/>
@@ -2478,18 +2476,18 @@
       </c>
       <c r="L45">
         <f t="shared" si="6"/>
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>6</v>
       </c>
       <c r="B46">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="5"/>
@@ -2497,18 +2495,18 @@
       </c>
       <c r="L46">
         <f t="shared" si="6"/>
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>4</v>
       </c>
       <c r="B47">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="5"/>
@@ -2516,68 +2514,68 @@
       </c>
       <c r="L47">
         <f t="shared" si="6"/>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="5"/>
-        <v>sigmaG_rhat</v>
+        <v>sigmaA_rhat</v>
       </c>
       <c r="L48">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="5"/>
-        <v>sigmaI_rhat</v>
+        <v>sigmaG_rhat</v>
       </c>
       <c r="L49">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" t="s">
         <v>65</v>
-      </c>
-      <c r="B51" t="s">
-        <v>66</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
       </c>
       <c r="L51">
         <f>A53</f>
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="B54" t="s">
         <v>5</v>
       </c>
@@ -2596,37 +2594,41 @@
       <c r="G54" t="s">
         <v>4</v>
       </c>
-      <c r="H54" t="s">
+    </row>
+    <row r="55" spans="1:12">
+      <c r="B55">
+        <v>1250.1279999999999</v>
+      </c>
+      <c r="C55">
+        <v>425550.29700000002</v>
+      </c>
+      <c r="D55">
+        <v>1240.98</v>
+      </c>
+      <c r="E55">
+        <v>1392.511</v>
+      </c>
+      <c r="F55">
+        <v>598114.04500000004</v>
+      </c>
+      <c r="G55">
+        <v>1389.509</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
         <v>53</v>
       </c>
-      <c r="I54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>216.08600000000001</v>
-      </c>
-      <c r="C55">
-        <v>314.94749999999999</v>
-      </c>
-      <c r="D55">
-        <v>215.2732</v>
-      </c>
-      <c r="E55">
-        <v>156.20400000000001</v>
-      </c>
-      <c r="F55">
-        <v>259.8698</v>
-      </c>
-      <c r="G55">
-        <v>199.9828</v>
-      </c>
-      <c r="H55">
-        <v>7158.3136000000004</v>
-      </c>
-      <c r="I55">
-        <v>3597.7334999999998</v>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>218303.86</v>
+      </c>
+      <c r="B57">
+        <v>44260.226999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2635,29 +2637,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2672,12 +2675,12 @@
         <v>Gauss</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -2687,23 +2690,23 @@
         <v>OriginalDiffusionGauss</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2">
         <f>B3</f>
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2718,7 +2721,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2726,32 +2729,32 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>-97.32</v>
+        <v>-114.7</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
       <c r="L5">
         <f>C5</f>
-        <v>-97.32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-114.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6">
-        <v>11.01</v>
+        <v>7.5709999999999997</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
       </c>
       <c r="L6">
         <f>B6</f>
-        <v>11.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>7.5709999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2759,17 +2762,17 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>-86.3</v>
+        <v>-107.1</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
       <c r="L7">
         <f>C7</f>
-        <v>-86.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-107.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2777,10 +2780,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2794,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -2811,7 +2814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2828,10 +2831,10 @@
         <v>27</v>
       </c>
       <c r="F12" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2860,7 +2863,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -2880,7 +2883,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -2900,21 +2903,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>0.13627</v>
+        <v>0.13614000000000001</v>
       </c>
       <c r="C18">
-        <v>5.1090000000000003E-2</v>
+        <v>4.0828000000000003E-2</v>
       </c>
       <c r="D18" s="1">
-        <v>2.086E-4</v>
+        <v>5.2710000000000002E-5</v>
       </c>
       <c r="E18" s="1">
-        <v>2.3235E-3</v>
+        <v>6.8740000000000001E-4</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" ref="K18:L25" si="0">A18</f>
@@ -2922,24 +2925,24 @@
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0.13627</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.13614000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19">
-        <v>7.6480000000000006E-2</v>
+        <v>0.49983</v>
       </c>
       <c r="C19">
-        <v>6.3935000000000006E-2</v>
+        <v>0.28864200000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>2.61E-4</v>
+        <v>3.726E-4</v>
       </c>
       <c r="E19" s="1">
-        <v>2.6630999999999998E-3</v>
+        <v>4.3899999999999999E-4</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
@@ -2947,24 +2950,24 @@
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>7.6480000000000006E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
-        <v>0.28473999999999999</v>
+        <v>0.39623000000000003</v>
       </c>
       <c r="C20">
-        <v>0.17907000000000001</v>
+        <v>0.106379</v>
       </c>
       <c r="D20" s="1">
-        <v>7.3110000000000004E-4</v>
+        <v>1.373E-4</v>
       </c>
       <c r="E20" s="1">
-        <v>1.09625E-2</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
@@ -2972,24 +2975,24 @@
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0.28473999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.39623000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>0.42707000000000001</v>
+        <v>0.33807999999999999</v>
       </c>
       <c r="C21">
-        <v>0.20722699999999999</v>
+        <v>0.222612</v>
       </c>
       <c r="D21" s="1">
-        <v>8.4599999999999996E-4</v>
+        <v>2.8739999999999999E-4</v>
       </c>
       <c r="E21" s="1">
-        <v>1.84508E-2</v>
+        <v>6.7210000000000004E-3</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
@@ -2997,24 +3000,24 @@
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0.42707000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.33807999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22">
-        <v>0.22988</v>
+        <v>0.49948999999999999</v>
       </c>
       <c r="C22">
-        <v>0.15168799999999999</v>
+        <v>0.28860799999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>6.1930000000000004E-4</v>
+        <v>3.726E-4</v>
       </c>
       <c r="E22" s="1">
-        <v>7.7085000000000001E-3</v>
+        <v>3.7320000000000002E-4</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
@@ -3022,24 +3025,24 @@
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>0.22988</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49948999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23">
-        <v>0.25911000000000001</v>
+        <v>0.28472999999999998</v>
       </c>
       <c r="C23">
-        <v>0.14047100000000001</v>
+        <v>0.17005000000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>5.7350000000000001E-4</v>
+        <v>2.195E-4</v>
       </c>
       <c r="E23" s="1">
-        <v>1.17106E-2</v>
+        <v>5.1130000000000004E-3</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
@@ -3047,69 +3050,69 @@
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>0.25911000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.28472999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24">
+        <v>1.9009999999999999E-2</v>
+      </c>
+      <c r="C24">
+        <v>5.6010000000000001E-3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>7.2309999999999999E-6</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.2830000000000001E-5</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>sigmaA</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>1.9009999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
         <v>53</v>
       </c>
-      <c r="B24">
-        <v>1.0789999999999999E-2</v>
-      </c>
-      <c r="C24">
-        <v>4.4879999999999998E-3</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1.8320000000000001E-5</v>
-      </c>
-      <c r="E24" s="1">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="K24" t="str">
+      <c r="B25">
+        <v>1.1939999999999999E-2</v>
+      </c>
+      <c r="C25">
+        <v>3.7469999999999999E-3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4.8369999999999996E-6</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.0380000000000001E-5</v>
+      </c>
+      <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>sigmaG</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>1.0789999999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25">
-        <v>1.592E-2</v>
-      </c>
-      <c r="C25">
-        <v>6.7580000000000001E-3</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2.7589999999999998E-5</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1.4569999999999999E-4</v>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" si="0"/>
-        <v>sigmaI</v>
-      </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>1.592E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.1939999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
@@ -3118,14 +3121,14 @@
         <v>43</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="B29" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -3142,24 +3145,24 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30">
-        <v>4.1229000000000002E-2</v>
+        <v>5.5086999999999997E-2</v>
       </c>
       <c r="C30">
-        <v>0.10328</v>
+        <v>0.109739</v>
       </c>
       <c r="D30" s="1">
-        <v>0.13423399999999999</v>
+        <v>0.13582</v>
       </c>
       <c r="E30" s="1">
-        <v>0.16514999999999999</v>
+        <v>0.16216</v>
       </c>
       <c r="F30">
-        <v>0.24851000000000001</v>
+        <v>0.21793000000000001</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" ref="K30:K37" si="1">CONCATENATE(A30,"_median")</f>
@@ -3167,27 +3170,27 @@
       </c>
       <c r="L30">
         <f t="shared" ref="L30:L37" si="2">D30</f>
-        <v>0.13423399999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.13582</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31">
-        <v>3.2919999999999998E-3</v>
+        <v>2.5231E-2</v>
       </c>
       <c r="C31">
-        <v>2.9739999999999999E-2</v>
+        <v>0.249718</v>
       </c>
       <c r="D31" s="1">
-        <v>6.0909999999999999E-2</v>
+        <v>0.49946000000000002</v>
       </c>
       <c r="E31" s="1">
-        <v>0.10546999999999999</v>
+        <v>0.74999000000000005</v>
       </c>
       <c r="F31">
-        <v>0.23987</v>
+        <v>0.97484000000000004</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="1"/>
@@ -3195,27 +3198,27 @@
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
-        <v>6.0909999999999999E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49946000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32">
-        <v>1.6802999999999998E-2</v>
+        <v>0.185506</v>
       </c>
       <c r="C32">
-        <v>0.14654</v>
+        <v>0.32707599999999998</v>
       </c>
       <c r="D32">
-        <v>0.26408999999999999</v>
+        <v>0.39551999999999998</v>
       </c>
       <c r="E32">
-        <v>0.39732000000000001</v>
+        <v>0.46422999999999998</v>
       </c>
       <c r="F32">
-        <v>0.68979000000000001</v>
+        <v>0.60902999999999996</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="1"/>
@@ -3223,27 +3226,27 @@
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
-        <v>0.26408999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.39551999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33">
-        <v>5.3775999999999997E-2</v>
+        <v>2.0153999999999998E-2</v>
       </c>
       <c r="C33">
-        <v>0.27172000000000002</v>
+        <v>0.16308700000000001</v>
       </c>
       <c r="D33">
-        <v>0.42311500000000002</v>
+        <v>0.30285000000000001</v>
       </c>
       <c r="E33">
-        <v>0.56272999999999995</v>
+        <v>0.47516999999999998</v>
       </c>
       <c r="F33">
-        <v>0.85536999999999996</v>
+        <v>0.86265000000000003</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="1"/>
@@ -3251,27 +3254,27 @@
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
-        <v>0.42311500000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.30285000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34">
-        <v>1.3126000000000001E-2</v>
+        <v>2.5321E-2</v>
       </c>
       <c r="C34">
-        <v>0.11502</v>
+        <v>0.24973600000000001</v>
       </c>
       <c r="D34">
-        <v>0.211224</v>
+        <v>0.49908000000000002</v>
       </c>
       <c r="E34">
-        <v>0.31685999999999998</v>
+        <v>0.74919999999999998</v>
       </c>
       <c r="F34">
-        <v>0.58169999999999999</v>
+        <v>0.97489000000000003</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="1"/>
@@ -3279,27 +3282,27 @@
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
-        <v>0.211224</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49908000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="3">
-        <v>2.6120000000000001E-2</v>
+        <v>3.8087999999999997E-2</v>
       </c>
       <c r="C35" s="4">
-        <v>0.15669</v>
+        <v>0.15219299999999999</v>
       </c>
       <c r="D35" s="4">
-        <v>0.24845300000000001</v>
+        <v>0.25830999999999998</v>
       </c>
       <c r="E35" s="4">
-        <v>0.34155000000000002</v>
+        <v>0.38933000000000001</v>
       </c>
       <c r="F35" s="3">
-        <v>0.58796999999999999</v>
+        <v>0.68498999999999999</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="1"/>
@@ -3307,91 +3310,91 @@
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
-        <v>0.24845300000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.25830999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B36">
-        <v>5.6030000000000003E-3</v>
+        <v>1.1556E-2</v>
       </c>
       <c r="C36">
-        <v>7.8399999999999997E-3</v>
+        <v>1.5169E-2</v>
       </c>
       <c r="D36">
-        <v>9.7450000000000002E-3</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="E36">
-        <v>1.248E-2</v>
+        <v>2.1569999999999999E-2</v>
       </c>
       <c r="F36">
-        <v>2.2290000000000001E-2</v>
+        <v>3.2870000000000003E-2</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="1"/>
-        <v>sigmaG_median</v>
+        <v>sigmaA_median</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
-        <v>9.7450000000000002E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.7899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37">
-        <v>8.2349999999999993E-3</v>
+        <v>7.0130000000000001E-3</v>
       </c>
       <c r="C37">
-        <v>1.154E-2</v>
+        <v>9.3670000000000003E-3</v>
       </c>
       <c r="D37">
-        <v>1.4288E-2</v>
+        <v>1.119E-2</v>
       </c>
       <c r="E37">
-        <v>1.8370000000000001E-2</v>
+        <v>1.3639999999999999E-2</v>
       </c>
       <c r="F37">
-        <v>3.3349999999999998E-2</v>
+        <v>2.1260000000000001E-2</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="1"/>
-        <v>sigmaI_median</v>
+        <v>sigmaG_median</v>
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>1.4288E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.119E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
         <v>57</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>58</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>59</v>
       </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="41" spans="1:12">
+      <c r="B41" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>61</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>62</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>63</v>
-      </c>
-      <c r="E41" t="s">
-        <v>64</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" ref="K41" si="3">CONCATENATE(A41,"_rhat")</f>
@@ -3402,15 +3405,15 @@
         <v>Point</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="K42" t="str">
         <f>CONCATENATE(A42,"_rhat")</f>
@@ -3418,18 +3421,18 @@
       </c>
       <c r="L42">
         <f>B42</f>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>7</v>
       </c>
       <c r="B43">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" ref="K43:K49" si="5">CONCATENATE(A43,"_rhat")</f>
@@ -3437,18 +3440,18 @@
       </c>
       <c r="L43">
         <f t="shared" ref="L43:L49" si="6">B43</f>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>3</v>
       </c>
       <c r="B44">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="5"/>
@@ -3456,18 +3459,18 @@
       </c>
       <c r="L44">
         <f t="shared" si="6"/>
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>2</v>
       </c>
       <c r="B45">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>1.1200000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="5"/>
@@ -3475,18 +3478,18 @@
       </c>
       <c r="L45">
         <f t="shared" si="6"/>
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>6</v>
       </c>
       <c r="B46">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="5"/>
@@ -3494,18 +3497,18 @@
       </c>
       <c r="L46">
         <f t="shared" si="6"/>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>4</v>
       </c>
       <c r="B47">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>1.0900000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="5"/>
@@ -3513,68 +3516,68 @@
       </c>
       <c r="L47">
         <f t="shared" si="6"/>
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="5"/>
-        <v>sigmaG_rhat</v>
+        <v>sigmaA_rhat</v>
       </c>
       <c r="L48">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="5"/>
-        <v>sigmaI_rhat</v>
+        <v>sigmaG_rhat</v>
       </c>
       <c r="L49">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" t="s">
         <v>65</v>
-      </c>
-      <c r="B51" t="s">
-        <v>66</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
       </c>
       <c r="L51">
         <f>A53</f>
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="B54" t="s">
         <v>5</v>
       </c>
@@ -3593,37 +3596,41 @@
       <c r="G54" t="s">
         <v>4</v>
       </c>
-      <c r="H54" t="s">
+    </row>
+    <row r="55" spans="1:12">
+      <c r="B55">
+        <v>3537.87</v>
+      </c>
+      <c r="C55">
+        <v>432340.141</v>
+      </c>
+      <c r="D55">
+        <v>3593.1030000000001</v>
+      </c>
+      <c r="E55">
+        <v>1104.325</v>
+      </c>
+      <c r="F55">
+        <v>598151.18500000006</v>
+      </c>
+      <c r="G55">
+        <v>1115.019</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
         <v>53</v>
       </c>
-      <c r="I54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>484.79860000000002</v>
-      </c>
-      <c r="C55">
-        <v>609.55039999999997</v>
-      </c>
-      <c r="D55">
-        <v>258.32830000000001</v>
-      </c>
-      <c r="E55">
-        <v>130.7337</v>
-      </c>
-      <c r="F55">
-        <v>385.96820000000002</v>
-      </c>
-      <c r="G55">
-        <v>164.50530000000001</v>
-      </c>
-      <c r="H55">
-        <v>4057.5612999999998</v>
-      </c>
-      <c r="I55">
-        <v>2638.5655000000002</v>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>193223.182</v>
+      </c>
+      <c r="B57">
+        <v>34014.025000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3632,28 +3639,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="K52" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3668,12 +3676,12 @@
         <v>Gauss</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -3683,23 +3691,23 @@
         <v>OriginalDiffusionGauss</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2">
         <f>B3</f>
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3714,7 +3722,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3722,32 +3730,32 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>-89.81</v>
+        <v>-103.9</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
       <c r="L5">
         <f>C5</f>
-        <v>-89.81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-103.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6">
-        <v>10.77</v>
+        <v>7.617</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
       </c>
       <c r="L6">
         <f>B6</f>
-        <v>10.77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>7.617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -3755,17 +3763,17 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>-79.040000000000006</v>
+        <v>-96.32</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
       <c r="L7">
         <f>C7</f>
-        <v>-79.040000000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-96.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3773,10 +3781,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -3790,7 +3798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -3807,7 +3815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -3824,10 +3832,10 @@
         <v>27</v>
       </c>
       <c r="F12" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3856,7 +3864,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -3876,7 +3884,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -3896,21 +3904,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>0.12153</v>
+        <v>8.566E-2</v>
       </c>
       <c r="C18">
-        <v>7.1787000000000004E-2</v>
+        <v>3.7828000000000001E-2</v>
       </c>
       <c r="D18" s="1">
-        <v>2.9310000000000002E-4</v>
+        <v>4.884E-5</v>
       </c>
       <c r="E18" s="1">
-        <v>2.6749999999999999E-3</v>
+        <v>4.595E-4</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" ref="K18:L25" si="0">A18</f>
@@ -3918,24 +3926,24 @@
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0.12153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8.566E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19">
-        <v>6.7729999999999999E-2</v>
+        <v>0.50073000000000001</v>
       </c>
       <c r="C19">
-        <v>4.5954000000000002E-2</v>
+        <v>0.28872199999999998</v>
       </c>
       <c r="D19" s="1">
-        <v>1.8760000000000001E-4</v>
+        <v>3.7270000000000001E-4</v>
       </c>
       <c r="E19" s="1">
-        <v>1.66E-3</v>
+        <v>4.4020000000000002E-4</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
@@ -3943,24 +3951,24 @@
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>6.7729999999999999E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50073000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
-        <v>0.24057000000000001</v>
+        <v>0.29920000000000002</v>
       </c>
       <c r="C20">
-        <v>0.16677</v>
+        <v>0.10277</v>
       </c>
       <c r="D20" s="1">
-        <v>6.8079999999999996E-4</v>
+        <v>1.327E-4</v>
       </c>
       <c r="E20" s="1">
-        <v>5.4780000000000002E-3</v>
+        <v>1.2409999999999999E-3</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
@@ -3968,24 +3976,24 @@
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0.24057000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>0.66615000000000002</v>
+        <v>0.49470999999999998</v>
       </c>
       <c r="C21">
-        <v>0.15697</v>
+        <v>0.22614799999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>6.4079999999999996E-4</v>
+        <v>2.92E-4</v>
       </c>
       <c r="E21" s="1">
-        <v>8.9119999999999998E-3</v>
+        <v>4.4889999999999999E-3</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
@@ -3993,24 +4001,24 @@
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0.66615000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49470999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22">
-        <v>0.25130000000000002</v>
+        <v>0.49961</v>
       </c>
       <c r="C22">
-        <v>0.16736699999999999</v>
+        <v>0.28846100000000002</v>
       </c>
       <c r="D22" s="1">
-        <v>6.8329999999999997E-4</v>
+        <v>3.724E-4</v>
       </c>
       <c r="E22" s="1">
-        <v>1.081E-2</v>
+        <v>3.723E-4</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
@@ -4018,24 +4026,24 @@
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>0.25130000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23">
-        <v>0.43601000000000001</v>
+        <v>0.42468</v>
       </c>
       <c r="C23">
-        <v>0.180058</v>
+        <v>0.18246599999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>7.3510000000000003E-4</v>
+        <v>2.3560000000000001E-4</v>
       </c>
       <c r="E23" s="1">
-        <v>1.436E-2</v>
+        <v>3.5860000000000002E-3</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
@@ -4043,69 +4051,69 @@
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>0.43601000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.42468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24">
+        <v>2.1219999999999999E-2</v>
+      </c>
+      <c r="C24">
+        <v>6.3119999999999999E-3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>8.1480000000000006E-6</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.5299999999999999E-5</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>sigmaA</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>2.1219999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
         <v>53</v>
       </c>
-      <c r="B24">
-        <v>2.2259999999999999E-2</v>
-      </c>
-      <c r="C24">
-        <v>9.1229999999999992E-3</v>
-      </c>
-      <c r="D24" s="1">
-        <v>3.7240000000000003E-5</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1.415E-4</v>
-      </c>
-      <c r="K24" t="str">
+      <c r="B25">
+        <v>1.8270000000000002E-2</v>
+      </c>
+      <c r="C25">
+        <v>5.5659999999999998E-3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>7.1860000000000003E-6</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.7110000000000001E-5</v>
+      </c>
+      <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>sigmaG</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>2.2259999999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25">
-        <v>1.259E-2</v>
-      </c>
-      <c r="C25">
-        <v>5.3220000000000003E-3</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2.173E-5</v>
-      </c>
-      <c r="E25" s="1">
-        <v>9.9149999999999998E-5</v>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" si="0"/>
-        <v>sigmaI</v>
-      </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>1.259E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.8270000000000002E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
@@ -4114,14 +4122,14 @@
         <v>43</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="B29" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -4138,24 +4146,24 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30">
-        <v>1.2005999999999999E-2</v>
+        <v>1.601E-2</v>
       </c>
       <c r="C30">
-        <v>6.8825999999999998E-2</v>
+        <v>5.9299999999999999E-2</v>
       </c>
       <c r="D30" s="1">
-        <v>0.11279</v>
+        <v>8.4099999999999994E-2</v>
       </c>
       <c r="E30" s="1">
-        <v>0.16314999999999999</v>
+        <v>0.10996</v>
       </c>
       <c r="F30">
-        <v>0.28805999999999998</v>
+        <v>0.16511999999999999</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" ref="K30:K37" si="1">CONCATENATE(A30,"_median")</f>
@@ -4163,27 +4171,27 @@
       </c>
       <c r="L30">
         <f t="shared" ref="L30:L37" si="2">D30</f>
-        <v>0.11279</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8.4099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31">
-        <v>4.5250000000000004E-3</v>
+        <v>2.528E-2</v>
       </c>
       <c r="C31">
-        <v>3.4272999999999998E-2</v>
+        <v>0.25033</v>
       </c>
       <c r="D31" s="1">
-        <v>6.0310000000000002E-2</v>
+        <v>0.50127999999999995</v>
       </c>
       <c r="E31" s="1">
-        <v>9.1819999999999999E-2</v>
+        <v>0.75075000000000003</v>
       </c>
       <c r="F31">
-        <v>0.17907999999999999</v>
+        <v>0.97516999999999998</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="1"/>
@@ -4191,27 +4199,27 @@
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
-        <v>6.0310000000000002E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50127999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32">
-        <v>1.1375E-2</v>
+        <v>0.10970000000000001</v>
       </c>
       <c r="C32">
-        <v>0.109108</v>
+        <v>0.22817000000000001</v>
       </c>
       <c r="D32">
-        <v>0.21485000000000001</v>
+        <v>0.29515000000000002</v>
       </c>
       <c r="E32">
-        <v>0.34066000000000002</v>
+        <v>0.36519000000000001</v>
       </c>
       <c r="F32">
-        <v>0.63514000000000004</v>
+        <v>0.51432</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="1"/>
@@ -4219,27 +4227,27 @@
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
-        <v>0.21485000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.29515000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33">
-        <v>0.32591100000000001</v>
+        <v>6.6860000000000003E-2</v>
       </c>
       <c r="C33">
-        <v>0.566307</v>
+        <v>0.3301</v>
       </c>
       <c r="D33">
-        <v>0.67408999999999997</v>
+        <v>0.49440000000000001</v>
       </c>
       <c r="E33">
-        <v>0.77644000000000002</v>
+        <v>0.65841000000000005</v>
       </c>
       <c r="F33">
-        <v>0.94440000000000002</v>
+        <v>0.92827999999999999</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="1"/>
@@ -4247,27 +4255,27 @@
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
-        <v>0.67408999999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49440000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34">
-        <v>1.3557E-2</v>
+        <v>2.5159999999999998E-2</v>
       </c>
       <c r="C34">
-        <v>0.119264</v>
+        <v>0.25029000000000001</v>
       </c>
       <c r="D34">
-        <v>0.22983000000000001</v>
+        <v>0.49883</v>
       </c>
       <c r="E34">
-        <v>0.35204000000000002</v>
+        <v>0.74907000000000001</v>
       </c>
       <c r="F34">
-        <v>0.63507000000000002</v>
+        <v>0.97509000000000001</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="1"/>
@@ -4275,27 +4283,27 @@
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
-        <v>0.22983000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49883</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="3">
-        <v>8.1471000000000002E-2</v>
+        <v>7.9880000000000007E-2</v>
       </c>
       <c r="C35" s="4">
-        <v>0.31089499999999998</v>
+        <v>0.29218</v>
       </c>
       <c r="D35" s="4">
-        <v>0.43974999999999997</v>
+        <v>0.42454999999999998</v>
       </c>
       <c r="E35" s="4">
-        <v>0.56489</v>
+        <v>0.55581000000000003</v>
       </c>
       <c r="F35" s="3">
-        <v>0.77383000000000002</v>
+        <v>0.77329999999999999</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="1"/>
@@ -4303,91 +4311,91 @@
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
-        <v>0.43974999999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.42454999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B36">
-        <v>1.1714E-2</v>
+        <v>1.285E-2</v>
       </c>
       <c r="C36">
-        <v>1.6293999999999999E-2</v>
+        <v>1.6889999999999999E-2</v>
       </c>
       <c r="D36">
-        <v>2.01E-2</v>
+        <v>1.9980000000000001E-2</v>
       </c>
       <c r="E36">
-        <v>2.5590000000000002E-2</v>
+        <v>2.409E-2</v>
       </c>
       <c r="F36">
-        <v>4.5400000000000003E-2</v>
+        <v>3.6920000000000001E-2</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="1"/>
-        <v>sigmaG_median</v>
+        <v>sigmaA_median</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
-        <v>2.01E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.9980000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37">
-        <v>6.4900000000000001E-3</v>
+        <v>1.0869999999999999E-2</v>
       </c>
       <c r="C37">
-        <v>9.103E-3</v>
+        <v>1.4449999999999999E-2</v>
       </c>
       <c r="D37">
-        <v>1.1310000000000001E-2</v>
+        <v>1.7180000000000001E-2</v>
       </c>
       <c r="E37">
-        <v>1.453E-2</v>
+        <v>2.0809999999999999E-2</v>
       </c>
       <c r="F37">
-        <v>2.6380000000000001E-2</v>
+        <v>3.2099999999999997E-2</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="1"/>
-        <v>sigmaI_median</v>
+        <v>sigmaG_median</v>
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>1.1310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.7180000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
         <v>57</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>58</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>59</v>
       </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="41" spans="1:12">
+      <c r="B41" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>61</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>62</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>63</v>
-      </c>
-      <c r="E41" t="s">
-        <v>64</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" ref="K41" si="3">CONCATENATE(A41,"_rhat")</f>
@@ -4398,15 +4406,15 @@
         <v>Point</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="K42" t="str">
         <f>CONCATENATE(A42,"_rhat")</f>
@@ -4414,10 +4422,10 @@
       </c>
       <c r="L42">
         <f>B42</f>
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -4425,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" ref="K43:K49" si="5">CONCATENATE(A43,"_rhat")</f>
@@ -4436,7 +4444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -4444,7 +4452,7 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="5"/>
@@ -4455,15 +4463,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>2</v>
       </c>
       <c r="B45">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="5"/>
@@ -4471,18 +4479,18 @@
       </c>
       <c r="L45">
         <f t="shared" si="6"/>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>6</v>
       </c>
       <c r="B46">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="5"/>
@@ -4490,18 +4498,18 @@
       </c>
       <c r="L46">
         <f t="shared" si="6"/>
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>4</v>
       </c>
       <c r="B47">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="5"/>
@@ -4509,31 +4517,31 @@
       </c>
       <c r="L47">
         <f t="shared" si="6"/>
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B48">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="5"/>
-        <v>sigmaG_rhat</v>
+        <v>sigmaA_rhat</v>
       </c>
       <c r="L48">
         <f t="shared" si="6"/>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4543,34 +4551,34 @@
       </c>
       <c r="K49" t="str">
         <f t="shared" si="5"/>
-        <v>sigmaI_rhat</v>
+        <v>sigmaG_rhat</v>
       </c>
       <c r="L49">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" t="s">
         <v>65</v>
-      </c>
-      <c r="B51" t="s">
-        <v>66</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
       </c>
       <c r="L51">
         <f>A53</f>
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="B54" t="s">
         <v>5</v>
       </c>
@@ -4589,37 +4597,41 @@
       <c r="G54" t="s">
         <v>4</v>
       </c>
-      <c r="H54" t="s">
+    </row>
+    <row r="55" spans="1:12">
+      <c r="B55">
+        <v>6779.8019999999997</v>
+      </c>
+      <c r="C55">
+        <v>430294.33600000001</v>
+      </c>
+      <c r="D55">
+        <v>6869.7209999999995</v>
+      </c>
+      <c r="E55">
+        <v>2540.2469999999998</v>
+      </c>
+      <c r="F55">
+        <v>600205.82400000002</v>
+      </c>
+      <c r="G55">
+        <v>2589.404</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
         <v>53</v>
       </c>
-      <c r="I54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>771.59230000000002</v>
-      </c>
-      <c r="C55">
-        <v>785.81209999999999</v>
-      </c>
-      <c r="D55">
-        <v>956.16359999999997</v>
-      </c>
-      <c r="E55">
-        <v>305.52030000000002</v>
-      </c>
-      <c r="F55">
-        <v>246.25450000000001</v>
-      </c>
-      <c r="G55">
-        <v>156.7467</v>
-      </c>
-      <c r="H55">
-        <v>5767.2236999999996</v>
-      </c>
-      <c r="I55">
-        <v>3031.1311999999998</v>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>172694.533</v>
+      </c>
+      <c r="B57">
+        <v>106213.92</v>
       </c>
     </row>
   </sheetData>
@@ -4628,28 +4640,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="K67" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -4664,12 +4677,12 @@
         <v>Gauss</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -4679,23 +4692,23 @@
         <v>OriginalDiffusionGauss</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2">
         <f>B3</f>
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -4710,7 +4723,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -4718,32 +4731,32 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>-102.2</v>
+        <v>-118.4</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
       <c r="L5">
         <f>C5</f>
-        <v>-102.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-118.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6">
-        <v>12.39</v>
+        <v>8.0790000000000006</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
       </c>
       <c r="L6">
         <f>B6</f>
-        <v>12.39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8.0790000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -4751,17 +4764,17 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>-89.82</v>
+        <v>-110.3</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
       <c r="L7">
         <f>C7</f>
-        <v>-89.82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-110.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -4769,10 +4782,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -4786,7 +4799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -4803,7 +4816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -4820,10 +4833,10 @@
         <v>27</v>
       </c>
       <c r="F12" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4852,7 +4865,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -4872,7 +4885,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -4892,21 +4905,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>6.8933999999999995E-2</v>
+        <v>6.3184000000000004E-2</v>
       </c>
       <c r="C18">
-        <v>2.3917000000000001E-2</v>
+        <v>2.162E-2</v>
       </c>
       <c r="D18" s="1">
-        <v>9.7639999999999994E-5</v>
+        <v>2.7909999999999999E-5</v>
       </c>
       <c r="E18" s="1">
-        <v>9.7179999999999999E-4</v>
+        <v>3.1859999999999999E-4</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" ref="K18:L25" si="0">A18</f>
@@ -4914,24 +4927,24 @@
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>6.8933999999999995E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6.3184000000000004E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19">
-        <v>0.111632</v>
+        <v>0.50029199999999996</v>
       </c>
       <c r="C19">
-        <v>7.5814000000000006E-2</v>
+        <v>0.28855199999999998</v>
       </c>
       <c r="D19" s="1">
-        <v>3.0949999999999999E-4</v>
+        <v>3.725E-4</v>
       </c>
       <c r="E19" s="1">
-        <v>2.9293000000000001E-3</v>
+        <v>4.4059999999999998E-4</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
@@ -4939,24 +4952,24 @@
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>0.111632</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50029199999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
-        <v>9.7919999999999993E-2</v>
+        <v>0.23077</v>
       </c>
       <c r="C20">
-        <v>7.9642000000000004E-2</v>
+        <v>5.9535999999999999E-2</v>
       </c>
       <c r="D20" s="1">
-        <v>3.2509999999999999E-4</v>
+        <v>7.6860000000000006E-5</v>
       </c>
       <c r="E20" s="1">
-        <v>4.3182999999999997E-3</v>
+        <v>8.6490000000000004E-4</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
@@ -4964,24 +4977,24 @@
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>9.7919999999999993E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.23077</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>0.28240700000000002</v>
+        <v>0.15237000000000001</v>
       </c>
       <c r="C21">
-        <v>8.5541000000000006E-2</v>
+        <v>8.2246E-2</v>
       </c>
       <c r="D21" s="1">
-        <v>3.4919999999999998E-4</v>
+        <v>1.0620000000000001E-4</v>
       </c>
       <c r="E21" s="1">
-        <v>4.9214999999999997E-3</v>
+        <v>1.415E-3</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
@@ -4989,24 +5002,24 @@
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0.28240700000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.15237000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22">
-        <v>0.35939900000000002</v>
+        <v>0.50055799999999995</v>
       </c>
       <c r="C22">
-        <v>0.16316800000000001</v>
+        <v>0.28882000000000002</v>
       </c>
       <c r="D22" s="1">
-        <v>6.6609999999999998E-4</v>
+        <v>3.7290000000000001E-4</v>
       </c>
       <c r="E22" s="1">
-        <v>6.6468999999999999E-3</v>
+        <v>3.7310000000000002E-4</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
@@ -5014,24 +5027,24 @@
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>0.35939900000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50055799999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23">
-        <v>0.100661</v>
+        <v>0.116663</v>
       </c>
       <c r="C23">
-        <v>6.4768000000000006E-2</v>
+        <v>6.5056000000000003E-2</v>
       </c>
       <c r="D23" s="1">
-        <v>2.6439999999999998E-4</v>
+        <v>8.3990000000000001E-5</v>
       </c>
       <c r="E23" s="1">
-        <v>3.3281000000000001E-3</v>
+        <v>1.0679999999999999E-3</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
@@ -5039,69 +5052,69 @@
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>0.100661</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.116663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24">
+        <v>2.4424999999999999E-2</v>
+      </c>
+      <c r="C24">
+        <v>7.1859999999999997E-3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>9.2769999999999994E-6</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.9179999999999999E-5</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>sigmaA</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>2.4424999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
         <v>53</v>
       </c>
-      <c r="B24">
-        <v>6.2909999999999997E-3</v>
-      </c>
-      <c r="C24">
-        <v>2.8839999999999998E-3</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1.1770000000000001E-5</v>
-      </c>
-      <c r="E24" s="1">
-        <v>5.0899999999999997E-5</v>
-      </c>
-      <c r="K24" t="str">
+      <c r="B25">
+        <v>7.7629999999999999E-3</v>
+      </c>
+      <c r="C25">
+        <v>2.6059999999999998E-3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3.3639999999999999E-6</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.329E-5</v>
+      </c>
+      <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>sigmaG</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>6.2909999999999997E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25">
-        <v>2.1033E-2</v>
-      </c>
-      <c r="C25">
-        <v>9.2049999999999996E-3</v>
-      </c>
-      <c r="D25" s="1">
-        <v>3.7580000000000003E-5</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2.2049999999999999E-4</v>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" si="0"/>
-        <v>sigmaI</v>
-      </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>2.1033E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.7629999999999999E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
@@ -5110,14 +5123,14 @@
         <v>43</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="B29" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -5134,24 +5147,24 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30">
-        <v>1.5636000000000001E-2</v>
+        <v>1.7256000000000001E-2</v>
       </c>
       <c r="C30">
-        <v>5.4196000000000001E-2</v>
+        <v>4.9052999999999999E-2</v>
       </c>
       <c r="D30" s="1">
-        <v>7.1266999999999997E-2</v>
+        <v>6.4389000000000002E-2</v>
       </c>
       <c r="E30" s="1">
-        <v>8.5878999999999997E-2</v>
+        <v>7.8546000000000005E-2</v>
       </c>
       <c r="F30">
-        <v>0.10985</v>
+        <v>0.10194</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" ref="K30:K37" si="1">CONCATENATE(A30,"_median")</f>
@@ -5159,27 +5172,27 @@
       </c>
       <c r="L30">
         <f t="shared" ref="L30:L37" si="2">D30</f>
-        <v>7.1266999999999997E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6.4389000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31">
-        <v>7.0809999999999996E-3</v>
+        <v>2.5024999999999999E-2</v>
       </c>
       <c r="C31">
-        <v>5.5919999999999997E-2</v>
+        <v>0.25036799999999998</v>
       </c>
       <c r="D31" s="1">
-        <v>9.9959000000000006E-2</v>
+        <v>0.50054799999999999</v>
       </c>
       <c r="E31" s="1">
-        <v>0.15143899999999999</v>
+        <v>0.74973699999999999</v>
       </c>
       <c r="F31">
-        <v>0.29929</v>
+        <v>0.97502999999999995</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="1"/>
@@ -5187,27 +5200,27 @@
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
-        <v>9.9959000000000006E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50054799999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32">
-        <v>3.13E-3</v>
+        <v>0.106656</v>
       </c>
       <c r="C32">
-        <v>3.5234000000000001E-2</v>
+        <v>0.19203899999999999</v>
       </c>
       <c r="D32">
-        <v>7.8206999999999999E-2</v>
+        <v>0.23318</v>
       </c>
       <c r="E32">
-        <v>0.14141899999999999</v>
+        <v>0.27251999999999998</v>
       </c>
       <c r="F32">
-        <v>0.29518</v>
+        <v>0.33955000000000002</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="1"/>
@@ -5215,27 +5228,27 @@
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
-        <v>7.8206999999999999E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.23318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33">
-        <v>7.4945999999999999E-2</v>
+        <v>1.9095999999999998E-2</v>
       </c>
       <c r="C33">
-        <v>0.23644999999999999</v>
+        <v>9.1494000000000006E-2</v>
       </c>
       <c r="D33">
-        <v>0.29691699999999999</v>
+        <v>0.14459</v>
       </c>
       <c r="E33">
-        <v>0.34272799999999998</v>
+        <v>0.20319599999999999</v>
       </c>
       <c r="F33">
-        <v>0.41332999999999998</v>
+        <v>0.33428999999999998</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="1"/>
@@ -5243,27 +5256,27 @@
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
-        <v>0.29691699999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.14459</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34">
-        <v>7.9458000000000001E-2</v>
+        <v>2.5101999999999999E-2</v>
       </c>
       <c r="C34">
-        <v>0.24445800000000001</v>
+        <v>0.25051800000000002</v>
       </c>
       <c r="D34">
-        <v>0.34625600000000001</v>
+        <v>0.50108900000000001</v>
       </c>
       <c r="E34">
-        <v>0.45822600000000002</v>
+        <v>0.75139900000000004</v>
       </c>
       <c r="F34">
-        <v>0.72826999999999997</v>
+        <v>0.97477000000000003</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="1"/>
@@ -5271,27 +5284,27 @@
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
-        <v>0.34625600000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50108900000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="3">
-        <v>7.3049999999999999E-3</v>
+        <v>1.311E-2</v>
       </c>
       <c r="C35" s="4">
-        <v>5.1859000000000002E-2</v>
+        <v>6.8317000000000003E-2</v>
       </c>
       <c r="D35" s="4">
-        <v>9.0406E-2</v>
+        <v>0.10968799999999999</v>
       </c>
       <c r="E35" s="4">
-        <v>0.13794100000000001</v>
+        <v>0.15686700000000001</v>
       </c>
       <c r="F35" s="3">
-        <v>0.25023000000000001</v>
+        <v>0.26106000000000001</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="1"/>
@@ -5299,91 +5312,91 @@
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
-        <v>9.0406E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.10968799999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B36">
-        <v>3.1099999999999999E-3</v>
+        <v>1.4819000000000001E-2</v>
       </c>
       <c r="C36">
-        <v>4.4339999999999996E-3</v>
+        <v>1.9491999999999999E-2</v>
       </c>
       <c r="D36">
-        <v>5.5830000000000003E-3</v>
+        <v>2.3022000000000001E-2</v>
       </c>
       <c r="E36">
-        <v>7.3029999999999996E-3</v>
+        <v>2.7741999999999999E-2</v>
       </c>
       <c r="F36">
-        <v>1.366E-2</v>
+        <v>4.2200000000000001E-2</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="1"/>
-        <v>sigmaG_median</v>
+        <v>sigmaA_median</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
-        <v>5.5830000000000003E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.3022000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37">
-        <v>1.0567999999999999E-2</v>
+        <v>4.4559999999999999E-3</v>
       </c>
       <c r="C37">
-        <v>1.5037E-2</v>
+        <v>6.0049999999999999E-3</v>
       </c>
       <c r="D37">
-        <v>1.8806E-2</v>
+        <v>7.2230000000000003E-3</v>
       </c>
       <c r="E37">
-        <v>2.4413000000000001E-2</v>
+        <v>8.8830000000000003E-3</v>
       </c>
       <c r="F37">
-        <v>4.471E-2</v>
+        <v>1.423E-2</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="1"/>
-        <v>sigmaI_median</v>
+        <v>sigmaG_median</v>
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>1.8806E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.2230000000000003E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
         <v>57</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>58</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>59</v>
       </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="41" spans="1:12">
+      <c r="B41" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>61</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>62</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>63</v>
-      </c>
-      <c r="E41" t="s">
-        <v>64</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" ref="K41" si="3">CONCATENATE(A41,"_rhat")</f>
@@ -5394,7 +5407,7 @@
         <v>Point</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -5402,7 +5415,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K42" t="str">
         <f>CONCATENATE(A42,"_rhat")</f>
@@ -5413,15 +5426,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>7</v>
       </c>
       <c r="B43">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" ref="K43:K49" si="5">CONCATENATE(A43,"_rhat")</f>
@@ -5429,18 +5442,18 @@
       </c>
       <c r="L43">
         <f t="shared" ref="L43:L49" si="6">B43</f>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>3</v>
       </c>
       <c r="B44">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="5"/>
@@ -5448,18 +5461,18 @@
       </c>
       <c r="L44">
         <f t="shared" si="6"/>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>2</v>
       </c>
       <c r="B45">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="5"/>
@@ -5467,18 +5480,18 @@
       </c>
       <c r="L45">
         <f t="shared" si="6"/>
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>6</v>
       </c>
       <c r="B46">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="5"/>
@@ -5486,10 +5499,10 @@
       </c>
       <c r="L46">
         <f t="shared" si="6"/>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -5497,7 +5510,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="5"/>
@@ -5508,9 +5521,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -5520,16 +5533,16 @@
       </c>
       <c r="K48" t="str">
         <f t="shared" si="5"/>
-        <v>sigmaG_rhat</v>
+        <v>sigmaA_rhat</v>
       </c>
       <c r="L48">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -5539,34 +5552,34 @@
       </c>
       <c r="K49" t="str">
         <f t="shared" si="5"/>
-        <v>sigmaI_rhat</v>
+        <v>sigmaG_rhat</v>
       </c>
       <c r="L49">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" t="s">
         <v>65</v>
-      </c>
-      <c r="B51" t="s">
-        <v>66</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
       </c>
       <c r="L51">
         <f>A53</f>
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="B54" t="s">
         <v>5</v>
       </c>
@@ -5585,37 +5598,41 @@
       <c r="G54" t="s">
         <v>4</v>
       </c>
-      <c r="H54" t="s">
+    </row>
+    <row r="55" spans="1:12">
+      <c r="B55">
+        <v>4655.2160000000003</v>
+      </c>
+      <c r="C55">
+        <v>428896.64299999998</v>
+      </c>
+      <c r="D55">
+        <v>4802.0460000000003</v>
+      </c>
+      <c r="E55">
+        <v>3409.06</v>
+      </c>
+      <c r="F55">
+        <v>599295.97400000005</v>
+      </c>
+      <c r="G55">
+        <v>3764.4859999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
         <v>53</v>
       </c>
-      <c r="I54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>614.55629999999996</v>
-      </c>
-      <c r="C55">
-        <v>697.3922</v>
-      </c>
-      <c r="D55">
-        <v>356.3347</v>
-      </c>
-      <c r="E55">
-        <v>310.32330000000002</v>
-      </c>
-      <c r="F55">
-        <v>602.83839999999998</v>
-      </c>
-      <c r="G55">
-        <v>377.8365</v>
-      </c>
-      <c r="H55">
-        <v>3254.2435999999998</v>
-      </c>
-      <c r="I55">
-        <v>1933.6595</v>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>145446.598</v>
+      </c>
+      <c r="B57">
+        <v>42712.574000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5624,28 +5641,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -5660,12 +5678,12 @@
         <v>Gauss</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -5675,22 +5693,22 @@
         <v>OriginalDiffusionGauss</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2">
         <f>B3</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -5705,7 +5723,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -5713,32 +5731,32 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>-78.36</v>
+        <v>-95.55</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
       <c r="L5">
         <f>C5</f>
-        <v>-78.36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-95.55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6">
-        <v>10.87</v>
+        <v>7.1790000000000003</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
       </c>
       <c r="L6">
         <f>B6</f>
-        <v>10.87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.1790000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -5746,17 +5764,17 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>-67.489999999999995</v>
+        <v>-88.37</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
       <c r="L7">
         <f>C7</f>
-        <v>-67.489999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-88.37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -5764,10 +5782,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -5781,7 +5799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -5798,7 +5816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -5815,10 +5833,10 @@
         <v>27</v>
       </c>
       <c r="F12" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5847,7 +5865,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -5867,7 +5885,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -5887,21 +5905,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>4.8579999999999998E-2</v>
+        <v>3.5650000000000001E-2</v>
       </c>
       <c r="C18">
-        <v>3.0516000000000001E-2</v>
+        <v>2.0008000000000001E-2</v>
       </c>
       <c r="D18" s="1">
-        <v>1.2459999999999999E-4</v>
+        <v>2.5829999999999998E-5</v>
       </c>
       <c r="E18" s="1">
-        <v>4.6430000000000001E-4</v>
+        <v>1.0569999999999999E-4</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" ref="K18:L25" si="0">A18</f>
@@ -5909,24 +5927,24 @@
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>4.8579999999999998E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.5650000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19">
-        <v>0.10345</v>
+        <v>0.49936000000000003</v>
       </c>
       <c r="C19">
-        <v>7.1593000000000004E-2</v>
+        <v>0.28853200000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>2.923E-4</v>
+        <v>3.725E-4</v>
       </c>
       <c r="E19" s="1">
-        <v>2.0332000000000002E-3</v>
+        <v>4.4260000000000002E-4</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
@@ -5934,24 +5952,24 @@
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>0.10345</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49936000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
-        <v>0.11609999999999999</v>
+        <v>0.18074999999999999</v>
       </c>
       <c r="C20">
-        <v>8.2209000000000004E-2</v>
+        <v>5.2699999999999997E-2</v>
       </c>
       <c r="D20" s="1">
-        <v>3.3560000000000003E-4</v>
+        <v>6.8040000000000006E-5</v>
       </c>
       <c r="E20" s="1">
-        <v>1.7275000000000001E-3</v>
+        <v>2.8699999999999998E-4</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
@@ -5959,24 +5977,24 @@
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0.11609999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.18074999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>0.20882000000000001</v>
+        <v>0.11801</v>
       </c>
       <c r="C21">
-        <v>7.4980000000000005E-2</v>
+        <v>7.5498999999999997E-2</v>
       </c>
       <c r="D21" s="1">
-        <v>3.0610000000000001E-4</v>
+        <v>9.747E-5</v>
       </c>
       <c r="E21" s="1">
-        <v>1.6611E-3</v>
+        <v>5.0129999999999999E-4</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
@@ -5984,24 +6002,24 @@
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0.20882000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.11801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22">
-        <v>0.29564000000000001</v>
+        <v>0.50046000000000002</v>
       </c>
       <c r="C22">
-        <v>0.16170899999999999</v>
+        <v>0.28850999999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>6.602E-4</v>
+        <v>3.725E-4</v>
       </c>
       <c r="E22" s="1">
-        <v>5.1773000000000001E-3</v>
+        <v>3.7199999999999999E-4</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
@@ -6009,24 +6027,24 @@
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>0.29564000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50046000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23">
-        <v>8.4199999999999997E-2</v>
+        <v>9.1120000000000007E-2</v>
       </c>
       <c r="C23">
-        <v>6.6311999999999996E-2</v>
+        <v>6.3842999999999997E-2</v>
       </c>
       <c r="D23" s="1">
-        <v>2.7070000000000002E-4</v>
+        <v>8.242E-5</v>
       </c>
       <c r="E23" s="1">
-        <v>1.4999E-3</v>
+        <v>4.0620000000000001E-4</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
@@ -6034,69 +6052,69 @@
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>8.4199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9.1120000000000007E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24">
+        <v>2.9309999999999999E-2</v>
+      </c>
+      <c r="C24">
+        <v>8.5679999999999992E-3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.1060000000000001E-5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.7859999999999998E-5</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>sigmaA</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>2.9309999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
         <v>53</v>
       </c>
-      <c r="B24">
-        <v>2.179E-2</v>
-      </c>
-      <c r="C24">
-        <v>9.528E-3</v>
-      </c>
-      <c r="D24" s="1">
-        <v>3.8899999999999997E-5</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1.1620000000000001E-4</v>
-      </c>
-      <c r="K24" t="str">
+      <c r="B25">
+        <v>2.0129999999999999E-2</v>
+      </c>
+      <c r="C25">
+        <v>6.4530000000000004E-3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8.3310000000000004E-6</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.9559999999999999E-5</v>
+      </c>
+      <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>sigmaG</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>2.179E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25">
-        <v>2.589E-2</v>
-      </c>
-      <c r="C25">
-        <v>1.0356000000000001E-2</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4.2280000000000002E-5</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1.2459999999999999E-4</v>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" si="0"/>
-        <v>sigmaI</v>
-      </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>2.589E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.0129999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
@@ -6105,14 +6123,14 @@
         <v>43</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="B29" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -6129,24 +6147,24 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30">
-        <v>3.0430000000000001E-3</v>
+        <v>2.7859999999999998E-3</v>
       </c>
       <c r="C30">
-        <v>2.5749999999999999E-2</v>
+        <v>2.027E-2</v>
       </c>
       <c r="D30" s="1">
-        <v>4.5609999999999998E-2</v>
+        <v>3.4450000000000001E-2</v>
       </c>
       <c r="E30" s="1">
-        <v>6.6489999999999994E-2</v>
+        <v>4.9140000000000003E-2</v>
       </c>
       <c r="F30">
-        <v>0.11691</v>
+        <v>7.7670000000000003E-2</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" ref="K30:K37" si="1">CONCATENATE(A30,"_median")</f>
@@ -6154,27 +6172,27 @@
       </c>
       <c r="L30">
         <f t="shared" ref="L30:L37" si="2">D30</f>
-        <v>4.5609999999999998E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.4450000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31">
-        <v>6.4140000000000004E-3</v>
+        <v>2.4892000000000001E-2</v>
       </c>
       <c r="C31">
-        <v>4.9889999999999997E-2</v>
+        <v>0.24984999999999999</v>
       </c>
       <c r="D31" s="1">
-        <v>9.1039999999999996E-2</v>
+        <v>0.49903999999999998</v>
       </c>
       <c r="E31" s="1">
-        <v>0.14202999999999999</v>
+        <v>0.74917</v>
       </c>
       <c r="F31">
-        <v>0.27548</v>
+        <v>0.97487999999999997</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="1"/>
@@ -6182,27 +6200,27 @@
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
-        <v>9.1039999999999996E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49903999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32">
-        <v>5.6909999999999999E-3</v>
+        <v>7.8223000000000001E-2</v>
       </c>
       <c r="C32">
-        <v>5.1279999999999999E-2</v>
+        <v>0.14513999999999999</v>
       </c>
       <c r="D32">
-        <v>0.10162</v>
+        <v>0.18045</v>
       </c>
       <c r="E32">
-        <v>0.16489000000000001</v>
+        <v>0.21586</v>
       </c>
       <c r="F32">
-        <v>0.30729000000000001</v>
+        <v>0.28526000000000001</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="1"/>
@@ -6210,27 +6228,27 @@
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
-        <v>0.10162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.18045</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="1">
-        <v>5.2150000000000002E-2</v>
+        <v>9.1909999999999995E-3</v>
       </c>
       <c r="C33">
-        <v>0.16089999999999999</v>
+        <v>6.1359999999999998E-2</v>
       </c>
       <c r="D33">
-        <v>0.21113000000000001</v>
+        <v>0.10643</v>
       </c>
       <c r="E33">
-        <v>0.25831999999999999</v>
+        <v>0.1618</v>
       </c>
       <c r="F33">
-        <v>0.35293000000000002</v>
+        <v>0.29343999999999998</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="1"/>
@@ -6238,27 +6256,27 @@
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
-        <v>0.21113000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.10643</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="1">
-        <v>3.7596999999999998E-2</v>
+        <v>2.5277999999999998E-2</v>
       </c>
       <c r="C34">
-        <v>0.17867</v>
+        <v>0.25068000000000001</v>
       </c>
       <c r="D34">
-        <v>0.27635999999999999</v>
+        <v>0.49997999999999998</v>
       </c>
       <c r="E34">
-        <v>0.3921</v>
+        <v>0.75031000000000003</v>
       </c>
       <c r="F34">
-        <v>0.66608999999999996</v>
+        <v>0.9748</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="1"/>
@@ -6266,27 +6284,27 @@
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
-        <v>0.27635999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49997999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="3">
-        <v>3.0669999999999998E-3</v>
+        <v>5.1029999999999999E-3</v>
       </c>
       <c r="C35" s="4">
-        <v>3.2219999999999999E-2</v>
+        <v>4.2139999999999997E-2</v>
       </c>
       <c r="D35" s="4">
-        <v>7.0309999999999997E-2</v>
+        <v>8.0119999999999997E-2</v>
       </c>
       <c r="E35" s="4">
-        <v>0.12069000000000001</v>
+        <v>0.12764</v>
       </c>
       <c r="F35" s="3">
-        <v>0.24767</v>
+        <v>0.24079999999999999</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="1"/>
@@ -6294,97 +6312,97 @@
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
-        <v>7.0309999999999997E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8.0119999999999997E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1">
-        <v>1.1061E-2</v>
+        <v>1.7824E-2</v>
       </c>
       <c r="C36">
-        <v>1.562E-2</v>
+        <v>2.342E-2</v>
       </c>
       <c r="D36">
-        <v>1.9480000000000001E-2</v>
+        <v>2.7640000000000001E-2</v>
       </c>
       <c r="E36">
-        <v>2.5180000000000001E-2</v>
+        <v>3.329E-2</v>
       </c>
       <c r="F36">
-        <v>4.6679999999999999E-2</v>
+        <v>5.0520000000000002E-2</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="1"/>
-        <v>sigmaG_median</v>
+        <v>sigmaA_median</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
-        <v>1.9480000000000001E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.7640000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="1">
-        <v>1.3643000000000001E-2</v>
+        <v>1.1771E-2</v>
       </c>
       <c r="C37">
-        <v>1.9019999999999999E-2</v>
+        <v>1.575E-2</v>
       </c>
       <c r="D37">
-        <v>2.351E-2</v>
+        <v>1.882E-2</v>
       </c>
       <c r="E37">
-        <v>2.9919999999999999E-2</v>
+        <v>2.2960000000000001E-2</v>
       </c>
       <c r="F37">
-        <v>5.2139999999999999E-2</v>
+        <v>3.6220000000000002E-2</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="1"/>
-        <v>sigmaI_median</v>
+        <v>sigmaG_median</v>
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>2.351E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.882E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" t="s">
         <v>58</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>59</v>
       </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="40" spans="1:12">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="B41" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+      <c r="C41" t="s">
         <v>61</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>62</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>63</v>
-      </c>
-      <c r="E41" t="s">
-        <v>64</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" ref="K41" si="3">CONCATENATE(A41,"_rhat")</f>
@@ -6395,7 +6413,7 @@
         <v>Point</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -6414,7 +6432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -6433,7 +6451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -6452,7 +6470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -6460,7 +6478,7 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="5"/>
@@ -6471,7 +6489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -6490,7 +6508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -6498,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="5"/>
@@ -6509,9 +6527,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -6521,16 +6539,16 @@
       </c>
       <c r="K48" t="str">
         <f t="shared" si="5"/>
-        <v>sigmaG_rhat</v>
+        <v>sigmaA_rhat</v>
       </c>
       <c r="L48">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6540,25 +6558,25 @@
       </c>
       <c r="K49" t="str">
         <f t="shared" si="5"/>
-        <v>sigmaI_rhat</v>
+        <v>sigmaG_rhat</v>
       </c>
       <c r="L49">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="B50" s="3"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" t="s">
         <v>65</v>
-      </c>
-      <c r="B51" t="s">
-        <v>66</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
@@ -6568,12 +6586,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="B54" t="s">
         <v>5</v>
       </c>
@@ -6593,36 +6611,40 @@
         <v>4</v>
       </c>
       <c r="H54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="B55">
+        <v>35921.03</v>
+      </c>
+      <c r="C55">
+        <v>425166.79</v>
+      </c>
+      <c r="D55">
+        <v>33733.11</v>
+      </c>
+      <c r="E55">
+        <v>22688.639999999999</v>
+      </c>
+      <c r="F55">
+        <v>601594.91</v>
+      </c>
+      <c r="G55">
+        <v>24718.07</v>
+      </c>
+      <c r="H55">
+        <v>230412.13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="B56" t="s">
         <v>53</v>
       </c>
-      <c r="I54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>4382.7385000000004</v>
-      </c>
-      <c r="B55">
-        <v>1247.8389</v>
-      </c>
-      <c r="C55">
-        <v>2303.087</v>
-      </c>
-      <c r="D55">
-        <v>2034.2463</v>
-      </c>
-      <c r="E55">
-        <v>981.03160000000003</v>
-      </c>
-      <c r="F55">
-        <v>1986.9399000000001</v>
-      </c>
-      <c r="G55">
-        <v>7191.9043000000001</v>
-      </c>
-      <c r="H55">
-        <v>7185.3972000000003</v>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>108983.98</v>
       </c>
     </row>
   </sheetData>
